--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6315543333333333</v>
+        <v>0.0712695</v>
       </c>
       <c r="H2">
-        <v>1.894663</v>
+        <v>0.142539</v>
       </c>
       <c r="I2">
-        <v>0.4681870832749024</v>
+        <v>0.03885900113982477</v>
       </c>
       <c r="J2">
-        <v>0.5690659591172773</v>
+        <v>0.03315121049049902</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N2">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O2">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P2">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q2">
-        <v>67.99508850333933</v>
+        <v>7.446291168472499</v>
       </c>
       <c r="R2">
-        <v>407.970531020036</v>
+        <v>29.78516467389</v>
       </c>
       <c r="S2">
-        <v>0.128836823109561</v>
+        <v>0.01227537033144012</v>
       </c>
       <c r="T2">
-        <v>0.117064361637481</v>
+        <v>0.008056118196613176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6315543333333333</v>
+        <v>0.0712695</v>
       </c>
       <c r="H3">
-        <v>1.894663</v>
+        <v>0.142539</v>
       </c>
       <c r="I3">
-        <v>0.4681870832749024</v>
+        <v>0.03885900113982477</v>
       </c>
       <c r="J3">
-        <v>0.5690659591172773</v>
+        <v>0.03315121049049902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P3">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q3">
-        <v>17.31199518151844</v>
+        <v>1.953620101183</v>
       </c>
       <c r="R3">
-        <v>155.807956633666</v>
+        <v>11.721720607098</v>
       </c>
       <c r="S3">
-        <v>0.0328026995768279</v>
+        <v>0.00322058454153711</v>
       </c>
       <c r="T3">
-        <v>0.0447080305917112</v>
+        <v>0.003170422850179425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6315543333333333</v>
+        <v>0.0712695</v>
       </c>
       <c r="H4">
-        <v>1.894663</v>
+        <v>0.142539</v>
       </c>
       <c r="I4">
-        <v>0.4681870832749024</v>
+        <v>0.03885900113982477</v>
       </c>
       <c r="J4">
-        <v>0.5690659591172773</v>
+        <v>0.03315121049049902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N4">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O4">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P4">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q4">
-        <v>51.97940174720033</v>
+        <v>4.010325547478</v>
       </c>
       <c r="R4">
-        <v>467.814615724803</v>
+        <v>24.061953284868</v>
       </c>
       <c r="S4">
-        <v>0.09849036357848058</v>
+        <v>0.006611107480373515</v>
       </c>
       <c r="T4">
-        <v>0.1342362136245031</v>
+        <v>0.006508137249756716</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6315543333333333</v>
+        <v>0.0712695</v>
       </c>
       <c r="H5">
-        <v>1.894663</v>
+        <v>0.142539</v>
       </c>
       <c r="I5">
-        <v>0.4681870832749024</v>
+        <v>0.03885900113982477</v>
       </c>
       <c r="J5">
-        <v>0.5690659591172773</v>
+        <v>0.03315121049049902</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N5">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O5">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P5">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q5">
-        <v>12.2110244064855</v>
+        <v>1.986306907098</v>
       </c>
       <c r="R5">
-        <v>73.266146438913</v>
+        <v>7.945227628392001</v>
       </c>
       <c r="S5">
-        <v>0.02313740045161704</v>
+        <v>0.003274469440539903</v>
       </c>
       <c r="T5">
-        <v>0.02102322106713224</v>
+        <v>0.002148978982460769</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6315543333333333</v>
+        <v>0.0712695</v>
       </c>
       <c r="H6">
-        <v>1.894663</v>
+        <v>0.142539</v>
       </c>
       <c r="I6">
-        <v>0.4681870832749024</v>
+        <v>0.03885900113982477</v>
       </c>
       <c r="J6">
-        <v>0.5690659591172773</v>
+        <v>0.03315121049049902</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N6">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O6">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P6">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q6">
-        <v>52.58109977046156</v>
+        <v>1.3666914657835</v>
       </c>
       <c r="R6">
-        <v>473.229897934154</v>
+        <v>8.200148794701001</v>
       </c>
       <c r="S6">
-        <v>0.09963045859849767</v>
+        <v>0.002253020126629385</v>
       </c>
       <c r="T6">
-        <v>0.1357900919238486</v>
+        <v>0.002217928577639742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6315543333333333</v>
+        <v>0.0712695</v>
       </c>
       <c r="H7">
-        <v>1.894663</v>
+        <v>0.142539</v>
       </c>
       <c r="I7">
-        <v>0.4681870832749024</v>
+        <v>0.03885900113982477</v>
       </c>
       <c r="J7">
-        <v>0.5690659591172773</v>
+        <v>0.03315121049049902</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N7">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O7">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P7">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q7">
-        <v>45.01241138214233</v>
+        <v>6.808798010648</v>
       </c>
       <c r="R7">
-        <v>405.111702439281</v>
+        <v>40.852788063888</v>
       </c>
       <c r="S7">
-        <v>0.08528933795991828</v>
+        <v>0.01122444921930474</v>
       </c>
       <c r="T7">
-        <v>0.1162440402726012</v>
+        <v>0.0110496246338492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7173815</v>
+        <v>0.6315543333333333</v>
       </c>
       <c r="H8">
-        <v>1.434763</v>
+        <v>1.894663</v>
       </c>
       <c r="I8">
-        <v>0.5318129167250975</v>
+        <v>0.3443488527190632</v>
       </c>
       <c r="J8">
-        <v>0.4309340408827227</v>
+        <v>0.4406539397748009</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N8">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O8">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P8">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q8">
-        <v>77.235506129309</v>
+        <v>65.98527357018833</v>
       </c>
       <c r="R8">
-        <v>308.942024517236</v>
+        <v>395.91164142113</v>
       </c>
       <c r="S8">
-        <v>0.1463455296549912</v>
+        <v>0.1087781354729925</v>
       </c>
       <c r="T8">
-        <v>0.08864880704171511</v>
+        <v>0.1070838792944367</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7173815</v>
+        <v>0.6315543333333333</v>
       </c>
       <c r="H9">
-        <v>1.434763</v>
+        <v>1.894663</v>
       </c>
       <c r="I9">
-        <v>0.5318129167250975</v>
+        <v>0.3443488527190632</v>
       </c>
       <c r="J9">
-        <v>0.4309340408827227</v>
+        <v>0.4406539397748009</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P9">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q9">
-        <v>19.66466607197767</v>
+        <v>17.31199518151844</v>
       </c>
       <c r="R9">
-        <v>117.987996431866</v>
+        <v>155.807956633666</v>
       </c>
       <c r="S9">
-        <v>0.03726053101761236</v>
+        <v>0.02853919450920953</v>
       </c>
       <c r="T9">
-        <v>0.03385585093278083</v>
+        <v>0.04214203038178674</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7173815</v>
+        <v>0.6315543333333333</v>
       </c>
       <c r="H10">
-        <v>1.434763</v>
+        <v>1.894663</v>
       </c>
       <c r="I10">
-        <v>0.5318129167250975</v>
+        <v>0.3443488527190632</v>
       </c>
       <c r="J10">
-        <v>0.4309340408827227</v>
+        <v>0.4406539397748009</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N10">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O10">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P10">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q10">
-        <v>59.0433146071505</v>
+        <v>35.53748065563956</v>
       </c>
       <c r="R10">
-        <v>354.259887642903</v>
+        <v>319.837325900756</v>
       </c>
       <c r="S10">
-        <v>0.1118750375546613</v>
+        <v>0.05858429731318879</v>
       </c>
       <c r="T10">
-        <v>0.1016524588111622</v>
+        <v>0.08650774066070203</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7173815</v>
+        <v>0.6315543333333333</v>
       </c>
       <c r="H11">
-        <v>1.434763</v>
+        <v>1.894663</v>
       </c>
       <c r="I11">
-        <v>0.5318129167250975</v>
+        <v>0.3443488527190632</v>
       </c>
       <c r="J11">
-        <v>0.4309340408827227</v>
+        <v>0.4406539397748009</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N11">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O11">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P11">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q11">
-        <v>13.87048198850325</v>
+        <v>17.60164915577733</v>
       </c>
       <c r="R11">
-        <v>55.481927954013</v>
+        <v>105.609894934664</v>
       </c>
       <c r="S11">
-        <v>0.0262817340742101</v>
+        <v>0.02901669528396511</v>
       </c>
       <c r="T11">
-        <v>0.01592016085601601</v>
+        <v>0.02856475046019733</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7173815</v>
+        <v>0.6315543333333333</v>
       </c>
       <c r="H12">
-        <v>1.434763</v>
+        <v>1.894663</v>
       </c>
       <c r="I12">
-        <v>0.5318129167250975</v>
+        <v>0.3443488527190632</v>
       </c>
       <c r="J12">
-        <v>0.4309340408827227</v>
+        <v>0.4406539397748009</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N12">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O12">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P12">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q12">
-        <v>59.72678237499233</v>
+        <v>12.11092988649078</v>
       </c>
       <c r="R12">
-        <v>358.360694249954</v>
+        <v>108.998368978417</v>
       </c>
       <c r="S12">
-        <v>0.1131700695613069</v>
+        <v>0.01996512707483571</v>
       </c>
       <c r="T12">
-        <v>0.1028291573007637</v>
+        <v>0.02948124522198589</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7173815</v>
+        <v>0.6315543333333333</v>
       </c>
       <c r="H13">
-        <v>1.434763</v>
+        <v>1.894663</v>
       </c>
       <c r="I13">
-        <v>0.5318129167250975</v>
+        <v>0.3443488527190632</v>
       </c>
       <c r="J13">
-        <v>0.4309340408827227</v>
+        <v>0.4406539397748009</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N13">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O13">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P13">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q13">
-        <v>51.1295220246635</v>
+        <v>60.33613100156622</v>
       </c>
       <c r="R13">
-        <v>306.777132147981</v>
+        <v>543.025179014096</v>
       </c>
       <c r="S13">
-        <v>0.09688001486231554</v>
+        <v>0.09946540306487152</v>
       </c>
       <c r="T13">
-        <v>0.08802760594028496</v>
+        <v>0.1468742937556922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.13123</v>
+      </c>
+      <c r="H14">
+        <v>2.26246</v>
+      </c>
+      <c r="I14">
+        <v>0.616792146141112</v>
+      </c>
+      <c r="J14">
+        <v>0.5261948497347001</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>104.480755</v>
+      </c>
+      <c r="N14">
+        <v>208.96151</v>
+      </c>
+      <c r="O14">
+        <v>0.3158951586858897</v>
+      </c>
+      <c r="P14">
+        <v>0.2430112830697999</v>
+      </c>
+      <c r="Q14">
+        <v>118.19176447865</v>
+      </c>
+      <c r="R14">
+        <v>472.7670579145999</v>
+      </c>
+      <c r="S14">
+        <v>0.1948416528814571</v>
+      </c>
+      <c r="T14">
+        <v>0.12787128557875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.13123</v>
+      </c>
+      <c r="H15">
+        <v>2.26246</v>
+      </c>
+      <c r="I15">
+        <v>0.616792146141112</v>
+      </c>
+      <c r="J15">
+        <v>0.5261948497347001</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>27.41172733333334</v>
+      </c>
+      <c r="N15">
+        <v>82.23518200000001</v>
+      </c>
+      <c r="O15">
+        <v>0.08287872686044118</v>
+      </c>
+      <c r="P15">
+        <v>0.09563520617408686</v>
+      </c>
+      <c r="Q15">
+        <v>31.00896831128667</v>
+      </c>
+      <c r="R15">
+        <v>186.05380986772</v>
+      </c>
+      <c r="S15">
+        <v>0.05111894780969454</v>
+      </c>
+      <c r="T15">
+        <v>0.0503227529421207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.13123</v>
+      </c>
+      <c r="H16">
+        <v>2.26246</v>
+      </c>
+      <c r="I16">
+        <v>0.616792146141112</v>
+      </c>
+      <c r="J16">
+        <v>0.5261948497347001</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>56.26987066666667</v>
+      </c>
+      <c r="N16">
+        <v>168.809612</v>
+      </c>
+      <c r="O16">
+        <v>0.170130659215481</v>
+      </c>
+      <c r="P16">
+        <v>0.1963167303233743</v>
+      </c>
+      <c r="Q16">
+        <v>63.65416579425334</v>
+      </c>
+      <c r="R16">
+        <v>381.92499476552</v>
+      </c>
+      <c r="S16">
+        <v>0.1049352544219187</v>
+      </c>
+      <c r="T16">
+        <v>0.1033008524129156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.13123</v>
+      </c>
+      <c r="H17">
+        <v>2.26246</v>
+      </c>
+      <c r="I17">
+        <v>0.616792146141112</v>
+      </c>
+      <c r="J17">
+        <v>0.5261948497347001</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>27.870364</v>
+      </c>
+      <c r="N17">
+        <v>55.740728</v>
+      </c>
+      <c r="O17">
+        <v>0.08426540426907815</v>
+      </c>
+      <c r="P17">
+        <v>0.06482354492233867</v>
+      </c>
+      <c r="Q17">
+        <v>31.52779186772</v>
+      </c>
+      <c r="R17">
+        <v>126.11116747088</v>
+      </c>
+      <c r="S17">
+        <v>0.05197423954457314</v>
+      </c>
+      <c r="T17">
+        <v>0.03410981547968058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.13123</v>
+      </c>
+      <c r="H18">
+        <v>2.26246</v>
+      </c>
+      <c r="I18">
+        <v>0.616792146141112</v>
+      </c>
+      <c r="J18">
+        <v>0.5261948497347001</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>19.17638633333334</v>
+      </c>
+      <c r="N18">
+        <v>57.52915900000001</v>
+      </c>
+      <c r="O18">
+        <v>0.05797936283854631</v>
+      </c>
+      <c r="P18">
+        <v>0.06690339643179515</v>
+      </c>
+      <c r="Q18">
+        <v>21.69290351185667</v>
+      </c>
+      <c r="R18">
+        <v>130.15742107114</v>
+      </c>
+      <c r="S18">
+        <v>0.03576121563708121</v>
+      </c>
+      <c r="T18">
+        <v>0.03520422263216952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.13123</v>
+      </c>
+      <c r="H19">
+        <v>2.26246</v>
+      </c>
+      <c r="I19">
+        <v>0.616792146141112</v>
+      </c>
+      <c r="J19">
+        <v>0.5261948497347001</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>95.53593066666667</v>
+      </c>
+      <c r="N19">
+        <v>286.607792</v>
+      </c>
+      <c r="O19">
+        <v>0.2888506881305636</v>
+      </c>
+      <c r="P19">
+        <v>0.3333098390786051</v>
+      </c>
+      <c r="Q19">
+        <v>108.0731108480533</v>
+      </c>
+      <c r="R19">
+        <v>648.43866508832</v>
+      </c>
+      <c r="S19">
+        <v>0.1781608358463874</v>
+      </c>
+      <c r="T19">
+        <v>0.1753859206890637</v>
       </c>
     </row>
   </sheetData>
